--- a/admin_panel/push_management/template_name.xlsx
+++ b/admin_panel/push_management/template_name.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\admin_panel\push_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5524B4C7-59C8-476D-953E-52569EEBEFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5234AEB-C12F-46A2-B2A6-BD3802C50C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -163,12 +163,6 @@
     <t>enter text, undo, then redo the input action.</t>
   </si>
   <si>
-    <t>paste text into the input text field using the paste action.</t>
-  </si>
-  <si>
-    <t>copy and cut text from the input text field.</t>
-  </si>
-  <si>
     <t>the input is redone, and the field returns to the modified state.</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
   </si>
   <si>
     <t>the pasted text is accepted, and no issues occur.</t>
-  </si>
-  <si>
-    <t>the copied/cut text is successfully performed, and the input is modified accordingly.</t>
   </si>
   <si>
     <t>enter text and navigate through the input field using the tab key.</t>
@@ -264,10 +255,13 @@
     <t>SYM-AP_APT_TM_025</t>
   </si>
   <si>
-    <t>SYM-AP_APT_TM_026</t>
+    <t>enter the maximum number of allowed characters into the template name field.</t>
   </si>
   <si>
-    <t>enter the maximum number of allowed characters into the template name field.</t>
+    <t>SYM-AP_APT_TM_011</t>
+  </si>
+  <si>
+    <t>paste the text into the template name field using the paste action.</t>
   </si>
 </sst>
 </file>
@@ -1363,8 +1357,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1481,7 +1475,7 @@
     </row>
     <row r="4" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>45</v>
@@ -1490,7 +1484,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>12</v>
@@ -1523,7 +1517,7 @@
     </row>
     <row r="5" spans="1:26" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>45</v>
@@ -1532,7 +1526,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>16</v>
@@ -1561,13 +1555,13 @@
     </row>
     <row r="6" spans="1:26" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>14</v>
@@ -1599,7 +1593,7 @@
     </row>
     <row r="7" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>45</v>
@@ -1637,7 +1631,7 @@
     </row>
     <row r="8" spans="1:26" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>45</v>
@@ -1675,7 +1669,7 @@
     </row>
     <row r="9" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>45</v>
@@ -1713,7 +1707,7 @@
     </row>
     <row r="10" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>45</v>
@@ -1751,7 +1745,7 @@
     </row>
     <row r="11" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>45</v>
@@ -1789,7 +1783,7 @@
     </row>
     <row r="12" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>45</v>
@@ -1827,7 +1821,7 @@
     </row>
     <row r="13" spans="1:26" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>45</v>
@@ -1865,7 +1859,7 @@
     </row>
     <row r="14" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>45</v>
@@ -1903,7 +1897,7 @@
     </row>
     <row r="15" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>45</v>
@@ -1941,7 +1935,7 @@
     </row>
     <row r="16" spans="1:26" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>45</v>
@@ -1979,7 +1973,7 @@
     </row>
     <row r="17" spans="1:26" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>45</v>
@@ -2017,7 +2011,7 @@
     </row>
     <row r="18" spans="1:26" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>45</v>
@@ -2055,7 +2049,7 @@
     </row>
     <row r="19" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>45</v>
@@ -2093,7 +2087,7 @@
     </row>
     <row r="20" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>45</v>
@@ -2131,7 +2125,7 @@
     </row>
     <row r="21" spans="1:26" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>45</v>
@@ -2169,7 +2163,7 @@
     </row>
     <row r="22" spans="1:26" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>45</v>
@@ -2207,7 +2201,7 @@
     </row>
     <row r="23" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>45</v>
@@ -2245,7 +2239,7 @@
     </row>
     <row r="24" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>45</v>
@@ -2283,7 +2277,7 @@
     </row>
     <row r="25" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>45</v>
@@ -2321,7 +2315,7 @@
     </row>
     <row r="26" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>45</v>
@@ -2333,7 +2327,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="9"/>
@@ -2359,19 +2353,19 @@
     </row>
     <row r="27" spans="1:26" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="9"/>
@@ -2397,19 +2391,19 @@
     </row>
     <row r="28" spans="1:26" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="9"/>
@@ -2434,21 +2428,11 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="6"/>
       <c r="G29" s="9"/>
       <c r="H29" s="1"/>
